--- a/import/list_classes.xlsx
+++ b/import/list_classes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nckh\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A620040-7690-4E54-A941-5538580397BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D66A9-D61C-4995-99E7-6B35DFA4C6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8F6D045-6FE1-44B9-9070-279A78C0176E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8F6D045-6FE1-44B9-9070-279A78C0176E}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
-  <si>
-    <t>CNTT101</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>2025-2026</t>
   </si>
   <si>
-    <t>CNTT102</t>
-  </si>
-  <si>
     <t>tên_lớp</t>
   </si>
   <si>
@@ -63,46 +57,58 @@
     <t>năm_học</t>
   </si>
   <si>
-    <t>gv001</t>
-  </si>
-  <si>
-    <t>DHTT202</t>
-  </si>
-  <si>
     <t>gv002</t>
   </si>
   <si>
-    <t>DHTT203</t>
-  </si>
-  <si>
-    <t>DHTT204</t>
-  </si>
-  <si>
-    <t>DHTT205</t>
-  </si>
-  <si>
-    <t>DHTT206</t>
-  </si>
-  <si>
     <t>mon_hoc</t>
   </si>
   <si>
-    <t>B202A</t>
-  </si>
-  <si>
-    <t>B203A</t>
-  </si>
-  <si>
-    <t>B202B</t>
-  </si>
-  <si>
-    <t>B303A</t>
-  </si>
-  <si>
-    <t>B302A</t>
-  </si>
-  <si>
-    <t>B402A</t>
+    <t>gv003</t>
+  </si>
+  <si>
+    <t>gv004</t>
+  </si>
+  <si>
+    <t>clsta206</t>
+  </si>
+  <si>
+    <t>clsdh205</t>
+  </si>
+  <si>
+    <t>clsdh204</t>
+  </si>
+  <si>
+    <t>clstq203</t>
+  </si>
+  <si>
+    <t>clstq202</t>
+  </si>
+  <si>
+    <t>Cls007</t>
+  </si>
+  <si>
+    <t>Cls008</t>
+  </si>
+  <si>
+    <t>Cls009</t>
+  </si>
+  <si>
+    <t>Cls010</t>
+  </si>
+  <si>
+    <t>Cls011</t>
+  </si>
+  <si>
+    <t>Cls012</t>
+  </si>
+  <si>
+    <t>Cls013</t>
+  </si>
+  <si>
+    <t>clsta021</t>
+  </si>
+  <si>
+    <t>cls0211</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -121,13 +127,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,20 +175,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,10 +188,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,9 +206,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +246,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +352,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,215 +502,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69C4282-326E-4D37-918D-A5D8A7CB62FC}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.8984375" customWidth="1"/>
-    <col min="2" max="2" width="15.296875" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="4" max="5" width="14.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>5</v>
+      <c r="E6" s="3">
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
-        <v>6</v>
+      <c r="E7" s="3">
+        <v>2</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
